--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4070,10 +4070,8 @@
           <t>Gurinder Singh Aulakh</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>12096508105</t>
-        </is>
+      <c r="B73" t="n">
+        <v>12096508105</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -4116,6 +4114,559 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:36:51</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:36:57</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:36:59</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:01</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:08</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:10</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:12</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:14</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:16</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:18</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2063260971</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2025-09-15 16:37:21</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,10 +4621,8 @@
           <t>Sandipkumar Bhupendralal Kapadia</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2063260971</t>
-        </is>
+      <c r="B84" t="n">
+        <v>2063260971</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4667,6 +4665,7365 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:11:45</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:11:52</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:11:54</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:11:56</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:02</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:04</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:06</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:09</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:11</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:13</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:12:16</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:26</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:33</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:35</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:37</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:44</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:46</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:47</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:49</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:52</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:54</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:56</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:13:58</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:20:53</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:00</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:02</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:04</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:11</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:13</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:15</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:17</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:20</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:22</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:24</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:21:26</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:28:56</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:03</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:05</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:07</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:14</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:16</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:18</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:20</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:22</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:25</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:27</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>2025-09-15 17:29:29</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:36</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:43</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:45</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:47</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:55</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:57</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:11:59</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:01</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:03</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:05</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:08</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:10</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:52</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:12:59</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:01</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:03</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:10</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:12</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:14</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:16</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:18</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:21</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:23</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:13:26</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:08</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fnu Balan</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:15</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:17</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:19</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Atha Bass</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:26</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Thyagarajan Iyer</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:28</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:30</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:32</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jatinder Das</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>12096891489</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2027 Westmora ave.
+Stockton, CA 95210</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:34</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:36</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:20:39</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:27:38</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:27:51</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:27:53</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:28:00</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:28:02</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:28:04</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:28:07</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:02</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:14</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:16</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:23</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:26</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Gurinder Singh Aulakh</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>12096508105</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>698 N Plumas Dr, Mountain House, CA 95391</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:28</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:36:31</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:28</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:29</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:29</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:29</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:30</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:51:30</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:30</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:30</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:30</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:31</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:31</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>2025-09-16 08:53:31</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:57</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:58</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:58</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:58</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:58</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:51:58</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:09</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:10</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:10</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:10</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:10</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:52:11</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:47</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:48</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:48</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:48</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:49</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:21:49</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:29</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:30</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:30</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:30</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:30</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:46:31</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:16</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:16</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:17</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:17</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:17</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:49:17</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>JKR</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:22</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Amanda Father - Vazquez</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>116 cypress Vallejo Ca 94590 United States</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:23</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Thomas Schenck</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:23</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:24</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Janakkumar Babulal</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>9165478955</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:24</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sandipkumar Bhupendralal Kapadia</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2063260971</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>2025-09-16 11:55:24</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:19:39</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:24:53</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2065044242</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:30:07</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11978,10 +11978,8 @@
           <t>Madhukar Verma</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2065044242</t>
-        </is>
+      <c r="B231" t="n">
+        <v>2065044242</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -12024,6 +12022,358 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:54:29</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:54:31</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:54:33</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:55:15</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:55:17</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:55:20</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>13049196111</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:55:22</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12328,10 +12328,8 @@
           <t>Dennis Vanmeter</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>13049196111</t>
-        </is>
+      <c r="B238" t="n">
+        <v>13049196111</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -12374,6 +12372,208 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>2025-09-16 14:08:37</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>2025-09-16 14:08:40</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>2025-09-16 14:08:42</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>13049196111</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>2025-09-16 14:08:45</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N242"/>
+  <dimension ref="A1:N383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12528,10 +12528,8 @@
           <t>Dennis Vanmeter</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>13049196111</t>
-        </is>
+      <c r="B242" t="n">
+        <v>13049196111</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -12574,6 +12572,7058 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>2025-09-17 19:22:01</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>2025-09-17 19:22:04</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>2025-09-17 19:22:07</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>2025-09-17 19:22:09</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>2025-09-19 09:56:09</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>2025-09-19 09:56:12</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>2025-09-19 09:56:15</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>2025-09-19 09:56:17</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:02:53</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:02:55</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:02:58</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:03:00</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:08:31</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:08:34</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:08:37</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:08:39</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:08:42</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:10:18</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:10:21</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:10:23</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:10:26</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:10:29</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:11:33</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:11:35</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:11:38</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:11:41</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:11:44</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:17:47</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:17:50</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:17:52</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:17:55</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:17:58</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:22:55</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:22:57</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:22:58</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:23:00</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:23:02</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:27:24</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:27:26</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:27:27</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:27:29</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:27:32</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:32:49</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:32:51</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:32:53</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:32:55</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:32:56</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:35:20</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:35:22</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:35:24</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:35:26</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:35:28</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:22</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:25</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:27</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:30</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:33</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:36:36</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:39:21</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:39:23</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:39:25</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:39:26</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:39:31</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:42:47</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:42:48</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:42:50</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:42:52</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:23</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:26</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:28</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:31</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:34</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:46:37</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:49</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:51</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:53</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:54</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:56</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:48:58</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:31</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:33</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:35</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:37</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:39</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:51:41</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:53:52</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:53:53</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:53:55</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:53:57</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:53:59</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:54:01</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:30</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:31</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:33</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:35</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:37</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:56:39</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:49</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:50</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:52</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:54</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:56</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>2025-09-19 10:58:58</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:36</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:38</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:40</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:42</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:44</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:03:46</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:06:51</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:06:53</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:06:55</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:06:57</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:06:59</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>2025-09-19 11:07:01</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:30</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:33</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:36</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:38</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:41</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:44</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:20:47</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:31</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:33</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:35</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:37</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:39</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:21:41</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:28:57</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:28:59</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:29:01</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:29:03</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:29:05</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:29:06</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:29:59</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:02</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:05</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:08</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:10</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:13</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2065044242</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:30:16</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N383"/>
+  <dimension ref="A1:N410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19578,10 +19578,8 @@
           <t>Madhukar Verma</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2065044242</t>
-        </is>
+      <c r="B383" t="n">
+        <v>2065044242</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -19624,6 +19622,1358 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:38:47</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:38:50</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:38:52</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:38:55</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:38:57</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:00</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:02</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:51</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:53</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:55</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:57</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:39:58</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:40:00</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:05</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:07</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:10</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:13</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:16</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:18</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:21</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:52</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:55</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:42:58</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:43:01</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>HDM</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:43:04</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>BSBT</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:43:06</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2065044242</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:43:09</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Duplicate_Transactions.xlsx
+++ b/Duplicate_Transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N410"/>
+  <dimension ref="A1:N432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20928,10 +20928,8 @@
           <t>Madhukar Verma</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2065044242</t>
-        </is>
+      <c r="B410" t="n">
+        <v>2065044242</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -20974,6 +20972,1108 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:50:13</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:50:14</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:50:16</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Madhukar Verma</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2065044242</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>YBB</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:09</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:12</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:14</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:17</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:49</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:51</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:53:53</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:59:03</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:59:05</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>2025-09-19 12:59:07</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:00:34</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:00:36</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:00:39</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:04:39</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:04:41</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>13049196111</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>WhatsApp message already sent for this book previously</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:04:43</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>12814104622</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>PO Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Po Box 87301, Park Place, Houston, Texas</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:05:43</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Henry Chelegbor</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>13024705411</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>6613 Guyer Street, Philadelphia, Pa, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:05:45</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Dennis Vanmeter</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>13049196111</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, WV 25801</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>1909 Harper Rd, Beckley, Wv 25801</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>Same book already sent</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>2025-09-19 13:05:47</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
